--- a/src/test/resources/data/DemoWebShopTestData.xlsx
+++ b/src/test/resources/data/DemoWebShopTestData.xlsx
@@ -27,12 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>email</t>
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>TestType</t>
+  </si>
+  <si>
+    <t>ExpectedResult</t>
   </si>
   <si>
     <t>Leema12345@gmail.com</t>
@@ -41,7 +47,16 @@
     <t>Leema.12345</t>
   </si>
   <si>
+    <t>ValidEmailValidPassword</t>
+  </si>
+  <si>
     <t>leema@gmail</t>
+  </si>
+  <si>
+    <t>InValidEmailValidPassword</t>
+  </si>
+  <si>
+    <t>Please enter a valid email addres</t>
   </si>
 </sst>
 </file>
@@ -657,7 +672,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -665,6 +680,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
@@ -1203,46 +1221,67 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B3"/>
+      <selection activeCell="A1" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="23.9090909090909" customWidth="1"/>
     <col min="2" max="2" width="12.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="23.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="32.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Leema12345@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="Leema12345@gmail.com" tooltip="mailto:Leema12345@gmail.com"/>
     <hyperlink ref="A3" r:id="rId2" display="leema@gmail"/>
+    <hyperlink ref="D2" r:id="rId1" display="Leema12345@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
